--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnfsf14-Ltbr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnfsf14-Ltbr.xlsx
@@ -537,22 +537,22 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.786831</v>
+        <v>5.57196</v>
       </c>
       <c r="H2">
-        <v>8.360493</v>
+        <v>16.71588</v>
       </c>
       <c r="I2">
-        <v>0.1227769702371957</v>
+        <v>0.2041274261050298</v>
       </c>
       <c r="J2">
-        <v>0.1227769702371957</v>
+        <v>0.2041274261050299</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.226432000000001</v>
+        <v>15.090721</v>
       </c>
       <c r="N2">
-        <v>24.679296</v>
+        <v>45.272163</v>
       </c>
       <c r="O2">
-        <v>0.1046851189010213</v>
+        <v>0.169971412714946</v>
       </c>
       <c r="P2">
-        <v>0.1046851189010213</v>
+        <v>0.169971412714946</v>
       </c>
       <c r="Q2">
-        <v>22.925675716992</v>
+        <v>84.08489378316</v>
       </c>
       <c r="R2">
-        <v>206.331081452928</v>
+        <v>756.7640440484399</v>
       </c>
       <c r="S2">
-        <v>0.01285292172758798</v>
+        <v>0.03469582698893767</v>
       </c>
       <c r="T2">
-        <v>0.01285292172758798</v>
+        <v>0.03469582698893767</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.786831</v>
+        <v>5.57196</v>
       </c>
       <c r="H3">
-        <v>8.360493</v>
+        <v>16.71588</v>
       </c>
       <c r="I3">
-        <v>0.1227769702371957</v>
+        <v>0.2041274261050298</v>
       </c>
       <c r="J3">
-        <v>0.1227769702371957</v>
+        <v>0.2041274261050299</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>20.15320433333333</v>
       </c>
       <c r="N3">
-        <v>60.459613</v>
+        <v>60.45961299999999</v>
       </c>
       <c r="O3">
-        <v>0.2564587650966515</v>
+        <v>0.226991713071207</v>
       </c>
       <c r="P3">
-        <v>0.2564587650966516</v>
+        <v>0.226991713071207</v>
       </c>
       <c r="Q3">
-        <v>56.16357458546766</v>
+        <v>112.29284841716</v>
       </c>
       <c r="R3">
-        <v>505.472171269209</v>
+        <v>1010.63563575444</v>
       </c>
       <c r="S3">
-        <v>0.03148723016933954</v>
+        <v>0.04633523413639695</v>
       </c>
       <c r="T3">
-        <v>0.03148723016933955</v>
+        <v>0.04633523413639695</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.786831</v>
+        <v>5.57196</v>
       </c>
       <c r="H4">
-        <v>8.360493</v>
+        <v>16.71588</v>
       </c>
       <c r="I4">
-        <v>0.1227769702371957</v>
+        <v>0.2041274261050298</v>
       </c>
       <c r="J4">
-        <v>0.1227769702371957</v>
+        <v>0.2041274261050299</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.64009466666667</v>
+        <v>18.66868666666667</v>
       </c>
       <c r="N4">
-        <v>46.920284</v>
+        <v>56.00606</v>
       </c>
       <c r="O4">
-        <v>0.1990273753922999</v>
+        <v>0.2102711359030499</v>
       </c>
       <c r="P4">
-        <v>0.1990273753922999</v>
+        <v>0.2102711359030499</v>
       </c>
       <c r="Q4">
-        <v>43.58630066000133</v>
+        <v>104.0211753592</v>
       </c>
       <c r="R4">
-        <v>392.276705940012</v>
+        <v>936.1905782327999</v>
       </c>
       <c r="S4">
-        <v>0.02443597814492757</v>
+        <v>0.04292210575607051</v>
       </c>
       <c r="T4">
-        <v>0.02443597814492758</v>
+        <v>0.04292210575607052</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>2.786831</v>
+        <v>5.57196</v>
       </c>
       <c r="H5">
-        <v>8.360493</v>
+        <v>16.71588</v>
       </c>
       <c r="I5">
-        <v>0.1227769702371957</v>
+        <v>0.2041274261050298</v>
       </c>
       <c r="J5">
-        <v>0.1227769702371957</v>
+        <v>0.2041274261050299</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.823239999999999</v>
+        <v>5.641943333333334</v>
       </c>
       <c r="N5">
-        <v>20.46972</v>
+        <v>16.92583</v>
       </c>
       <c r="O5">
-        <v>0.0868288573576253</v>
+        <v>0.06354693581733691</v>
       </c>
       <c r="P5">
-        <v>0.08682885735762531</v>
+        <v>0.06354693581733692</v>
       </c>
       <c r="Q5">
-        <v>19.01521675244</v>
+        <v>31.4366825756</v>
       </c>
       <c r="R5">
-        <v>171.13695077196</v>
+        <v>282.9301431804</v>
       </c>
       <c r="S5">
-        <v>0.01066058403552687</v>
+        <v>0.01297167244525451</v>
       </c>
       <c r="T5">
-        <v>0.01066058403552687</v>
+        <v>0.01297167244525452</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>2.786831</v>
+        <v>5.57196</v>
       </c>
       <c r="H6">
-        <v>8.360493</v>
+        <v>16.71588</v>
       </c>
       <c r="I6">
-        <v>0.1227769702371957</v>
+        <v>0.2041274261050298</v>
       </c>
       <c r="J6">
-        <v>0.1227769702371957</v>
+        <v>0.2041274261050299</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.92712666666667</v>
+        <v>15.42507366666667</v>
       </c>
       <c r="N6">
-        <v>41.78138</v>
+        <v>46.275221</v>
       </c>
       <c r="O6">
-        <v>0.1772290722210533</v>
+        <v>0.1737373292074942</v>
       </c>
       <c r="P6">
-        <v>0.1772290722210533</v>
+        <v>0.1737373292074942</v>
       </c>
       <c r="Q6">
-        <v>38.81254833559333</v>
+        <v>85.94789346772001</v>
       </c>
       <c r="R6">
-        <v>349.31293502034</v>
+        <v>773.53104120948</v>
       </c>
       <c r="S6">
-        <v>0.02175964852525006</v>
+        <v>0.03546455382948801</v>
       </c>
       <c r="T6">
-        <v>0.02175964852525007</v>
+        <v>0.03546455382948802</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>2.786831</v>
+        <v>5.57196</v>
       </c>
       <c r="H7">
-        <v>8.360493</v>
+        <v>16.71588</v>
       </c>
       <c r="I7">
-        <v>0.1227769702371957</v>
+        <v>0.2041274261050298</v>
       </c>
       <c r="J7">
-        <v>0.1227769702371957</v>
+        <v>0.2041274261050299</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.81253266666666</v>
+        <v>13.804248</v>
       </c>
       <c r="N7">
-        <v>41.43759799999999</v>
+        <v>41.412744</v>
       </c>
       <c r="O7">
-        <v>0.1757708110313487</v>
+        <v>0.1554814732859661</v>
       </c>
       <c r="P7">
-        <v>0.1757708110313487</v>
+        <v>0.1554814732859661</v>
       </c>
       <c r="Q7">
-        <v>38.49319422397932</v>
+        <v>76.91671768607999</v>
       </c>
       <c r="R7">
-        <v>346.4387480158139</v>
+        <v>692.2504591747199</v>
       </c>
       <c r="S7">
-        <v>0.02158060763456365</v>
+        <v>0.03173803294888222</v>
       </c>
       <c r="T7">
-        <v>0.02158060763456365</v>
+        <v>0.03173803294888223</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.35471666666666</v>
+        <v>20.56891366666667</v>
       </c>
       <c r="H8">
-        <v>52.06415</v>
+        <v>61.70674100000001</v>
       </c>
       <c r="I8">
-        <v>0.7645815378321459</v>
+        <v>0.7535372480335895</v>
       </c>
       <c r="J8">
-        <v>0.7645815378321459</v>
+        <v>0.7535372480335896</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.226432000000001</v>
+        <v>15.090721</v>
       </c>
       <c r="N8">
-        <v>24.679296</v>
+        <v>45.272163</v>
       </c>
       <c r="O8">
-        <v>0.1046851189010213</v>
+        <v>0.169971412714946</v>
       </c>
       <c r="P8">
-        <v>0.1046851189010213</v>
+        <v>0.169971412714946</v>
       </c>
       <c r="Q8">
-        <v>142.7673965376</v>
+        <v>310.3997374167537</v>
       </c>
       <c r="R8">
-        <v>1284.9065688384</v>
+        <v>2793.597636750783</v>
       </c>
       <c r="S8">
-        <v>0.08004030919748388</v>
+        <v>0.1280797905816019</v>
       </c>
       <c r="T8">
-        <v>0.08004030919748389</v>
+        <v>0.1280797905816019</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.35471666666666</v>
+        <v>20.56891366666667</v>
       </c>
       <c r="H9">
-        <v>52.06415</v>
+        <v>61.70674100000001</v>
       </c>
       <c r="I9">
-        <v>0.7645815378321459</v>
+        <v>0.7535372480335895</v>
       </c>
       <c r="J9">
-        <v>0.7645815378321459</v>
+        <v>0.7535372480335896</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>20.15320433333333</v>
       </c>
       <c r="N9">
-        <v>60.459613</v>
+        <v>60.45961299999999</v>
       </c>
       <c r="O9">
-        <v>0.2564587650966515</v>
+        <v>0.226991713071207</v>
       </c>
       <c r="P9">
-        <v>0.2564587650966516</v>
+        <v>0.226991713071207</v>
       </c>
       <c r="Q9">
-        <v>349.7531511304389</v>
+        <v>414.5295200390259</v>
       </c>
       <c r="R9">
-        <v>3147.77836017395</v>
+        <v>3730.765680351233</v>
       </c>
       <c r="S9">
-        <v>0.1960836370081309</v>
+        <v>0.1710467107941075</v>
       </c>
       <c r="T9">
-        <v>0.1960836370081309</v>
+        <v>0.1710467107941075</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.35471666666666</v>
+        <v>20.56891366666667</v>
       </c>
       <c r="H10">
-        <v>52.06415</v>
+        <v>61.70674100000001</v>
       </c>
       <c r="I10">
-        <v>0.7645815378321459</v>
+        <v>0.7535372480335895</v>
       </c>
       <c r="J10">
-        <v>0.7645815378321459</v>
+        <v>0.7535372480335896</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.64009466666667</v>
+        <v>18.66868666666667</v>
       </c>
       <c r="N10">
-        <v>46.920284</v>
+        <v>56.00606</v>
       </c>
       <c r="O10">
-        <v>0.1990273753922999</v>
+        <v>0.2102711359030499</v>
       </c>
       <c r="P10">
-        <v>0.1990273753922999</v>
+        <v>0.2102711359030499</v>
       </c>
       <c r="Q10">
-        <v>271.4294115798444</v>
+        <v>383.9946043167178</v>
       </c>
       <c r="R10">
-        <v>2442.8647042186</v>
+        <v>3455.95143885046</v>
       </c>
       <c r="S10">
-        <v>0.1521726567481405</v>
+        <v>0.1584471330892811</v>
       </c>
       <c r="T10">
-        <v>0.1521726567481405</v>
+        <v>0.1584471330892812</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.35471666666666</v>
+        <v>20.56891366666667</v>
       </c>
       <c r="H11">
-        <v>52.06415</v>
+        <v>61.70674100000001</v>
       </c>
       <c r="I11">
-        <v>0.7645815378321459</v>
+        <v>0.7535372480335895</v>
       </c>
       <c r="J11">
-        <v>0.7645815378321459</v>
+        <v>0.7535372480335896</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.823239999999999</v>
+        <v>5.641943333333334</v>
       </c>
       <c r="N11">
-        <v>20.46972</v>
+        <v>16.92583</v>
       </c>
       <c r="O11">
-        <v>0.0868288573576253</v>
+        <v>0.06354693581733691</v>
       </c>
       <c r="P11">
-        <v>0.08682885735762531</v>
+        <v>0.06354693581733692</v>
       </c>
       <c r="Q11">
-        <v>118.4153969486666</v>
+        <v>116.0486453355589</v>
       </c>
       <c r="R11">
-        <v>1065.738572538</v>
+        <v>1044.43780802003</v>
       </c>
       <c r="S11">
-        <v>0.06638774128670119</v>
+        <v>0.04788498313676319</v>
       </c>
       <c r="T11">
-        <v>0.06638774128670119</v>
+        <v>0.0478849831367632</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.35471666666666</v>
+        <v>20.56891366666667</v>
       </c>
       <c r="H12">
-        <v>52.06415</v>
+        <v>61.70674100000001</v>
       </c>
       <c r="I12">
-        <v>0.7645815378321459</v>
+        <v>0.7535372480335895</v>
       </c>
       <c r="J12">
-        <v>0.7645815378321459</v>
+        <v>0.7535372480335896</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.92712666666667</v>
+        <v>15.42507366666667</v>
       </c>
       <c r="N12">
-        <v>41.78138</v>
+        <v>46.275221</v>
       </c>
       <c r="O12">
-        <v>0.1772290722210533</v>
+        <v>0.1737373292074942</v>
       </c>
       <c r="P12">
-        <v>0.1772290722210533</v>
+        <v>0.1737373292074942</v>
       </c>
       <c r="Q12">
-        <v>241.7013372807778</v>
+        <v>317.2770085516402</v>
       </c>
       <c r="R12">
-        <v>2175.312035527</v>
+        <v>2855.493076964762</v>
       </c>
       <c r="S12">
-        <v>0.1355060765873373</v>
+        <v>0.1309175489317209</v>
       </c>
       <c r="T12">
-        <v>0.1355060765873374</v>
+        <v>0.1309175489317209</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.35471666666666</v>
+        <v>20.56891366666667</v>
       </c>
       <c r="H13">
-        <v>52.06415</v>
+        <v>61.70674100000001</v>
       </c>
       <c r="I13">
-        <v>0.7645815378321459</v>
+        <v>0.7535372480335895</v>
       </c>
       <c r="J13">
-        <v>0.7645815378321459</v>
+        <v>0.7535372480335896</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.81253266666666</v>
+        <v>13.804248</v>
       </c>
       <c r="N13">
-        <v>41.43759799999999</v>
+        <v>41.412744</v>
       </c>
       <c r="O13">
-        <v>0.1757708110313487</v>
+        <v>0.1554814732859661</v>
       </c>
       <c r="P13">
-        <v>0.1757708110313487</v>
+        <v>0.1554814732859661</v>
       </c>
       <c r="Q13">
-        <v>239.7125908790777</v>
+        <v>283.9383853452561</v>
       </c>
       <c r="R13">
-        <v>2157.4133179117</v>
+        <v>2555.445468107304</v>
       </c>
       <c r="S13">
-        <v>0.1343911170043521</v>
+        <v>0.117161081500115</v>
       </c>
       <c r="T13">
-        <v>0.1343911170043521</v>
+        <v>0.117161081500115</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.556772666666667</v>
+        <v>1.155605333333333</v>
       </c>
       <c r="H14">
-        <v>7.670318</v>
+        <v>3.466816</v>
       </c>
       <c r="I14">
-        <v>0.1126414919306584</v>
+        <v>0.04233532586138062</v>
       </c>
       <c r="J14">
-        <v>0.1126414919306584</v>
+        <v>0.04233532586138063</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.226432000000001</v>
+        <v>15.090721</v>
       </c>
       <c r="N14">
-        <v>24.679296</v>
+        <v>45.272163</v>
       </c>
       <c r="O14">
-        <v>0.1046851189010213</v>
+        <v>0.169971412714946</v>
       </c>
       <c r="P14">
-        <v>0.1046851189010213</v>
+        <v>0.169971412714946</v>
       </c>
       <c r="Q14">
-        <v>21.033116481792</v>
+        <v>17.43891767144533</v>
       </c>
       <c r="R14">
-        <v>189.298048336128</v>
+        <v>156.950259043008</v>
       </c>
       <c r="S14">
-        <v>0.01179188797594941</v>
+        <v>0.007195795144406453</v>
       </c>
       <c r="T14">
-        <v>0.01179188797594941</v>
+        <v>0.007195795144406453</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.556772666666667</v>
+        <v>1.155605333333333</v>
       </c>
       <c r="H15">
-        <v>7.670318</v>
+        <v>3.466816</v>
       </c>
       <c r="I15">
-        <v>0.1126414919306584</v>
+        <v>0.04233532586138062</v>
       </c>
       <c r="J15">
-        <v>0.1126414919306584</v>
+        <v>0.04233532586138063</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>20.15320433333333</v>
       </c>
       <c r="N15">
-        <v>60.459613</v>
+        <v>60.45961299999999</v>
       </c>
       <c r="O15">
-        <v>0.2564587650966515</v>
+        <v>0.226991713071207</v>
       </c>
       <c r="P15">
-        <v>0.2564587650966516</v>
+        <v>0.226991713071207</v>
       </c>
       <c r="Q15">
-        <v>51.5271619852149</v>
+        <v>23.28915041135644</v>
       </c>
       <c r="R15">
-        <v>463.7444578669341</v>
+        <v>209.6023537022079</v>
       </c>
       <c r="S15">
-        <v>0.0288878979191811</v>
+        <v>0.009609768140702558</v>
       </c>
       <c r="T15">
-        <v>0.0288878979191811</v>
+        <v>0.00960976814070256</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.556772666666667</v>
+        <v>1.155605333333333</v>
       </c>
       <c r="H16">
-        <v>7.670318</v>
+        <v>3.466816</v>
       </c>
       <c r="I16">
-        <v>0.1126414919306584</v>
+        <v>0.04233532586138062</v>
       </c>
       <c r="J16">
-        <v>0.1126414919306584</v>
+        <v>0.04233532586138063</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.64009466666667</v>
+        <v>18.66868666666667</v>
       </c>
       <c r="N16">
-        <v>46.920284</v>
+        <v>56.00606</v>
       </c>
       <c r="O16">
-        <v>0.1990273753922999</v>
+        <v>0.2102711359030499</v>
       </c>
       <c r="P16">
-        <v>0.1990273753922999</v>
+        <v>0.2102711359030499</v>
       </c>
       <c r="Q16">
-        <v>39.98816654781245</v>
+        <v>21.57363387832888</v>
       </c>
       <c r="R16">
-        <v>359.893498930312</v>
+        <v>194.16270490496</v>
       </c>
       <c r="S16">
-        <v>0.02241874049923187</v>
+        <v>0.008901897057698267</v>
       </c>
       <c r="T16">
-        <v>0.02241874049923188</v>
+        <v>0.00890189705769827</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.556772666666667</v>
+        <v>1.155605333333333</v>
       </c>
       <c r="H17">
-        <v>7.670318</v>
+        <v>3.466816</v>
       </c>
       <c r="I17">
-        <v>0.1126414919306584</v>
+        <v>0.04233532586138062</v>
       </c>
       <c r="J17">
-        <v>0.1126414919306584</v>
+        <v>0.04233532586138063</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.823239999999999</v>
+        <v>5.641943333333334</v>
       </c>
       <c r="N17">
-        <v>20.46972</v>
+        <v>16.92583</v>
       </c>
       <c r="O17">
-        <v>0.0868288573576253</v>
+        <v>0.06354693581733691</v>
       </c>
       <c r="P17">
-        <v>0.08682885735762531</v>
+        <v>0.06354693581733692</v>
       </c>
       <c r="Q17">
-        <v>17.44547353010666</v>
+        <v>6.519859806364444</v>
       </c>
       <c r="R17">
-        <v>157.00926177096</v>
+        <v>58.67873825728</v>
       </c>
       <c r="S17">
-        <v>0.009780532035397242</v>
+        <v>0.002690280235319197</v>
       </c>
       <c r="T17">
-        <v>0.009780532035397242</v>
+        <v>0.002690280235319198</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.556772666666667</v>
+        <v>1.155605333333333</v>
       </c>
       <c r="H18">
-        <v>7.670318</v>
+        <v>3.466816</v>
       </c>
       <c r="I18">
-        <v>0.1126414919306584</v>
+        <v>0.04233532586138062</v>
       </c>
       <c r="J18">
-        <v>0.1126414919306584</v>
+        <v>0.04233532586138063</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>13.92712666666667</v>
+        <v>15.42507366666667</v>
       </c>
       <c r="N18">
-        <v>41.78138</v>
+        <v>46.275221</v>
       </c>
       <c r="O18">
-        <v>0.1772290722210533</v>
+        <v>0.1737373292074942</v>
       </c>
       <c r="P18">
-        <v>0.1772290722210533</v>
+        <v>0.1737373292074942</v>
       </c>
       <c r="Q18">
-        <v>35.60849678653778</v>
+        <v>17.82529739625955</v>
       </c>
       <c r="R18">
-        <v>320.47647107884</v>
+        <v>160.427676566336</v>
       </c>
       <c r="S18">
-        <v>0.01996334710846585</v>
+        <v>0.007355226446285226</v>
       </c>
       <c r="T18">
-        <v>0.01996334710846585</v>
+        <v>0.007355226446285228</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.556772666666667</v>
+        <v>1.155605333333333</v>
       </c>
       <c r="H19">
-        <v>7.670318</v>
+        <v>3.466816</v>
       </c>
       <c r="I19">
-        <v>0.1126414919306584</v>
+        <v>0.04233532586138062</v>
       </c>
       <c r="J19">
-        <v>0.1126414919306584</v>
+        <v>0.04233532586138063</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>13.81253266666666</v>
+        <v>13.804248</v>
       </c>
       <c r="N19">
-        <v>41.43759799999999</v>
+        <v>41.412744</v>
       </c>
       <c r="O19">
-        <v>0.1757708110313487</v>
+        <v>0.1554814732859661</v>
       </c>
       <c r="P19">
-        <v>0.1757708110313487</v>
+        <v>0.1554814732859661</v>
       </c>
       <c r="Q19">
-        <v>35.31550597957377</v>
+        <v>15.952262611456</v>
       </c>
       <c r="R19">
-        <v>317.839553816164</v>
+        <v>143.570363503104</v>
       </c>
       <c r="S19">
-        <v>0.01979908639243295</v>
+        <v>0.006582358836968921</v>
       </c>
       <c r="T19">
-        <v>0.01979908639243295</v>
+        <v>0.006582358836968923</v>
       </c>
     </row>
   </sheetData>
